--- a/2020/Requisition/March/10.03.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/March/10.03.2020 Requisition of Mughdo Corporation.xlsx
@@ -1075,10 +1075,10 @@
   <dimension ref="A1:BV426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="13" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="13" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1086,7 +1086,7 @@
     <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1520,11 +1520,11 @@
         <v>721.8</v>
       </c>
       <c r="C9" s="8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>56300.399999999994</v>
+        <v>28872</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>90</v>
@@ -2210,11 +2210,11 @@
         <v>907.26</v>
       </c>
       <c r="C28" s="8">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
-        <v>127923.66</v>
+        <v>205948.02</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>116</v>
@@ -2404,19 +2404,17 @@
       <c r="BU31" s="26"/>
       <c r="BV31" s="26"/>
     </row>
-    <row r="32" spans="1:74" ht="15">
+    <row r="32" spans="1:74" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B32" s="9">
         <v>2252.42</v>
       </c>
-      <c r="C32" s="8">
-        <v>5</v>
-      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="10">
         <f>C32*B32</f>
-        <v>11262.1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>90</v>
@@ -4179,19 +4177,17 @@
       <c r="BB92" s="32"/>
       <c r="BC92" s="32"/>
     </row>
-    <row r="93" spans="1:74" ht="14.25" customHeight="1">
+    <row r="93" spans="1:74" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B93" s="9">
         <v>7165.02</v>
       </c>
-      <c r="C93" s="8">
-        <v>2</v>
-      </c>
+      <c r="C93" s="8"/>
       <c r="D93" s="10">
         <f t="shared" si="2"/>
-        <v>14330.04</v>
+        <v>0</v>
       </c>
       <c r="E93" s="36" t="s">
         <v>129</v>
@@ -4247,19 +4243,17 @@
       <c r="BB93" s="32"/>
       <c r="BC93" s="32"/>
     </row>
-    <row r="94" spans="1:74" ht="15">
+    <row r="94" spans="1:74" ht="15" hidden="1">
       <c r="A94" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B94" s="9">
         <v>7691.27</v>
       </c>
-      <c r="C94" s="8">
-        <v>4</v>
-      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="10">
         <f t="shared" si="1"/>
-        <v>30765.08</v>
+        <v>0</v>
       </c>
       <c r="E94" s="36" t="s">
         <v>125</v>
@@ -4317,14 +4311,14 @@
         <v>8101.24</v>
       </c>
       <c r="C96" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D96" s="10">
         <f>B96*C96</f>
-        <v>121518.59999999999</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>125</v>
+        <v>202531</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:55" s="2" customFormat="1" ht="15">
@@ -4334,11 +4328,11 @@
       <c r="B97" s="45"/>
       <c r="C97" s="16">
         <f>SUBTOTAL(9,C9:C96)</f>
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D97" s="17">
         <f>SUBTOTAL(9,D9:D96)</f>
-        <v>362099.88</v>
+        <v>437351.02</v>
       </c>
       <c r="E97" s="31"/>
       <c r="F97" s="33"/>
@@ -4568,7 +4562,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="21">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>132</v>
@@ -4722,7 +4716,7 @@
       </c>
       <c r="C106" s="22">
         <f>SUBTOTAL(9,C101:C105)</f>
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="23"/>
